--- a/community-artifacts/network_anomaly_work1.xlsx
+++ b/community-artifacts/network_anomaly_work1.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fmcquillan/Documents/Technical/vmw_ml_fun_jan2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5B77CB-0A0C-244B-885F-34AB55CBF91F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F147D5C0-11A3-D243-90B8-6DA0B6D0E0D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38460" yWindow="-4260" windowWidth="37920" windowHeight="24420" activeTab="3" xr2:uid="{A2D35623-7B57-F241-9F10-FBB487FBD806}"/>
+    <workbookView xWindow="88720" yWindow="-2120" windowWidth="37920" windowHeight="24420" activeTab="3" xr2:uid="{A2D35623-7B57-F241-9F10-FBB487FBD806}"/>
   </bookViews>
   <sheets>
     <sheet name="overall histogram of classes" sheetId="2" r:id="rId1"/>
     <sheet name="run1" sheetId="4" r:id="rId2"/>
     <sheet name="run2" sheetId="5" r:id="rId3"/>
     <sheet name="run3" sheetId="6" r:id="rId4"/>
-    <sheet name="accuacy work" sheetId="3" r:id="rId5"/>
+    <sheet name="accuracy work" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="453">
   <si>
     <t>class01</t>
   </si>
@@ -466,6 +466,9 @@
     <t> 0.922379237086935</t>
   </si>
   <si>
+    <t>run 3 on training set</t>
+  </si>
+  <si>
     <t> row_id |  class  |                    confusion_arr                    </t>
   </si>
   <si>
@@ -1382,6 +1385,18 @@
   </si>
   <si>
     <t>run 3 on 311K eval set</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>competition score = 57.5</t>
   </si>
 </sst>
 </file>
@@ -1487,13 +1502,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1521,6 +1529,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1840,7 +1855,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1865,6 +1880,9 @@
       <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G1" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
@@ -1884,6 +1902,9 @@
         <f>D2</f>
         <v>57.322150704991046</v>
       </c>
+      <c r="G2" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -1903,6 +1924,9 @@
         <f>E2+D3</f>
         <v>79.20705630027247</v>
       </c>
+      <c r="G3" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -1922,6 +1946,9 @@
         <f>E3+D4</f>
         <v>99.066088712896018</v>
       </c>
+      <c r="G4" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -1941,6 +1968,9 @@
         <f>E4+D5</f>
         <v>99.390519127451213</v>
       </c>
+      <c r="G5" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1960,6 +1990,9 @@
         <f>E5+D6</f>
         <v>99.645314999843819</v>
       </c>
+      <c r="G6" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -1979,6 +2012,9 @@
         <f>E6+D7</f>
         <v>99.85789327235598</v>
       </c>
+      <c r="G7" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -1998,6 +2034,9 @@
         <f>E7+D8</f>
         <v>99.905173717870071</v>
       </c>
+      <c r="G8" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -2017,6 +2056,9 @@
         <f>E8+D9</f>
         <v>99.950147302268832</v>
       </c>
+      <c r="G9" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -2036,6 +2078,9 @@
         <f>E9+D10</f>
         <v>99.97097029640716</v>
       </c>
+      <c r="G10" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -2055,6 +2100,9 @@
         <f>E10+D11</f>
         <v>99.990956287839921</v>
       </c>
+      <c r="G11" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -2074,6 +2122,9 @@
         <f>E11+D12</f>
         <v>99.996345768675724</v>
       </c>
+      <c r="G12" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
@@ -2093,7 +2144,10 @@
         <f>E12+D13</f>
         <v>99.997427747782908</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="G13" t="s">
+        <v>451</v>
+      </c>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -2113,6 +2167,9 @@
         <f>E13+D14</f>
         <v>99.998040188786973</v>
       </c>
+      <c r="G14" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -2132,6 +2189,9 @@
         <f>E14+D15</f>
         <v>99.998468897489815</v>
       </c>
+      <c r="G15" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -2151,6 +2211,9 @@
         <f>E15+D16</f>
         <v>99.998877191492525</v>
       </c>
+      <c r="G16" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -2170,143 +2233,167 @@
         <f>E16+D17</f>
         <v>99.999122167894157</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="G17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="25">
         <v>10</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="37">
         <f>C18/$C$25*100</f>
         <v>2.0414700135614852E-4</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="38">
         <f>E17+D18</f>
         <v>99.999326314895512</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="G18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35">
         <v>8</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="25">
         <v>9</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="37">
         <f>C19/$C$25*100</f>
         <v>1.8373230122053366E-4</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="38">
         <f>E18+D19</f>
         <v>99.999510047196736</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="G19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="25">
         <v>8</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="37">
         <f>C20/$C$25*100</f>
         <v>1.6331760108491883E-4</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="38">
         <f>E19+D20</f>
         <v>99.999673364797815</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="G20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35">
         <v>9</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="25">
         <v>7</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="37">
         <f>C21/$C$25*100</f>
         <v>1.4290290094930397E-4</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="38">
         <f>E20+D21</f>
         <v>99.999816267698762</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="G21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35">
         <v>13</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="25">
         <v>4</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="37">
         <f>C22/$C$25*100</f>
         <v>8.1658800542459413E-5</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="38">
         <f>E21+D22</f>
         <v>99.999897926499301</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="G22" t="s">
+        <v>451</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35">
         <v>12</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="25">
         <v>3</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="37">
         <f>C23/$C$25*100</f>
         <v>6.1244100406844553E-5</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="38">
         <f>E22+D23</f>
         <v>99.999959170599709</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="G23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35">
         <v>19</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="25">
         <v>2</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="37">
         <f>C24/$C$25*100</f>
         <v>4.0829400271229707E-5</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="38">
         <f>E23+D24</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="J24" s="16"/>
+      <c r="G24" t="s">
+        <v>451</v>
+      </c>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
@@ -2321,82 +2408,82 @@
         <f>SUM(D2:D24)</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="8:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="8:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="8:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="8:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="8:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="8:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="8:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="I39" s="14"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="8:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="42" spans="8:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L24">
@@ -2420,493 +2507,493 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:8" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
     <row r="61" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
+      <c r="A61" s="12"/>
     </row>
     <row r="62" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A64" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="H70" s="17" t="s">
+      <c r="I70" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="I70" s="17" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="71" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>249</v>
+      <c r="A71" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>250</v>
+      <c r="A72" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="C72">
         <v>1856</v>
       </c>
-      <c r="E72" s="33">
+      <c r="E72" s="28">
         <v>2203</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F72" s="19">
         <f>E72/$E$95</f>
         <v>4.4973584398759519E-4</v>
       </c>
-      <c r="H72" s="36">
+      <c r="H72" s="31">
         <f>C72*$E$95/$C$95</f>
         <v>29230.260540783845</v>
       </c>
@@ -2916,20 +3003,20 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
-        <v>251</v>
+      <c r="A73" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="C73">
         <v>174</v>
       </c>
-      <c r="E73" s="33">
+      <c r="E73" s="28">
         <v>30</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="19">
         <f t="shared" ref="F73:F94" si="0">E73/$E$95</f>
         <v>6.1244100406844562E-6</v>
       </c>
-      <c r="H73" s="36">
+      <c r="H73" s="31">
         <f t="shared" ref="H73:H94" si="1">C73*$E$95/$C$95</f>
         <v>2740.3369256984856</v>
       </c>
@@ -2938,44 +3025,44 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="C74" s="19">
+    <row r="74" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="14">
         <v>137</v>
       </c>
-      <c r="E74" s="34">
+      <c r="E74" s="29">
         <v>8</v>
       </c>
-      <c r="F74" s="29">
+      <c r="F74" s="24">
         <f t="shared" si="0"/>
         <v>1.6331760108491883E-6</v>
       </c>
-      <c r="H74" s="37">
+      <c r="H74" s="32">
         <f t="shared" si="1"/>
         <v>2157.6216024177734</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="14">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>253</v>
+      <c r="A75" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="C75">
         <v>576</v>
       </c>
-      <c r="E75" s="35">
+      <c r="E75" s="30">
         <v>53</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F75" s="19">
         <f t="shared" si="0"/>
         <v>1.0819791071875872E-5</v>
       </c>
-      <c r="H75" s="36">
+      <c r="H75" s="31">
         <f t="shared" si="1"/>
         <v>9071.4601678294694</v>
       </c>
@@ -2985,20 +3072,20 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>254</v>
+      <c r="A76" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="C76">
         <v>271</v>
       </c>
-      <c r="E76" s="35">
+      <c r="E76" s="30">
         <v>12</v>
       </c>
-      <c r="F76" s="24">
+      <c r="F76" s="19">
         <f t="shared" si="0"/>
         <v>2.4497640162737824E-6</v>
       </c>
-      <c r="H76" s="36">
+      <c r="H76" s="31">
         <f t="shared" si="1"/>
         <v>4267.9960164614349</v>
       </c>
@@ -3008,20 +3095,20 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>255</v>
+      <c r="A77" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="C77">
         <v>787</v>
       </c>
-      <c r="E77" s="35">
+      <c r="E77" s="30">
         <v>12481</v>
       </c>
-      <c r="F77" s="24">
+      <c r="F77" s="19">
         <f t="shared" si="0"/>
         <v>2.54795872392609E-3</v>
       </c>
-      <c r="H77" s="36">
+      <c r="H77" s="31">
         <f t="shared" si="1"/>
         <v>12394.512416808668</v>
       </c>
@@ -3031,20 +3118,20 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>256</v>
+      <c r="A78" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="C78">
         <v>78</v>
       </c>
-      <c r="E78" s="35">
+      <c r="E78" s="30">
         <v>21</v>
       </c>
-      <c r="F78" s="24">
+      <c r="F78" s="19">
         <f t="shared" si="0"/>
         <v>4.2870870284791191E-6</v>
       </c>
-      <c r="H78" s="36">
+      <c r="H78" s="31">
         <f t="shared" si="1"/>
         <v>1228.4268977269073</v>
       </c>
@@ -3053,67 +3140,67 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C79" s="19">
+    <row r="79" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" s="14">
         <v>45</v>
       </c>
-      <c r="E79" s="34">
+      <c r="E79" s="29">
         <v>9</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F79" s="24">
         <f t="shared" si="0"/>
         <v>1.8373230122053367E-6</v>
       </c>
-      <c r="H79" s="37">
+      <c r="H79" s="32">
         <f t="shared" si="1"/>
         <v>708.70782561167732</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I79" s="14">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="C80" s="19">
+    <row r="80" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" s="14">
         <v>12</v>
       </c>
-      <c r="E80" s="34">
+      <c r="E80" s="29">
         <v>7</v>
       </c>
-      <c r="F80" s="29">
+      <c r="F80" s="24">
         <f t="shared" si="0"/>
         <v>1.4290290094930398E-6</v>
       </c>
-      <c r="H80" s="37">
+      <c r="H80" s="32">
         <f t="shared" si="1"/>
         <v>188.98875349644729</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>259</v>
+      <c r="A81" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="C81">
         <v>58186</v>
       </c>
-      <c r="E81" s="35">
+      <c r="E81" s="30">
         <v>1072017</v>
       </c>
-      <c r="F81" s="24">
+      <c r="F81" s="19">
         <f t="shared" si="0"/>
         <v>0.21884905595281429</v>
       </c>
-      <c r="H81" s="36">
+      <c r="H81" s="31">
         <f t="shared" si="1"/>
         <v>916374.96757869015</v>
       </c>
@@ -3123,20 +3210,20 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>260</v>
+      <c r="A82" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="C82">
         <v>609</v>
       </c>
-      <c r="E82" s="35">
+      <c r="E82" s="30">
         <v>2316</v>
       </c>
-      <c r="F82" s="24">
+      <c r="F82" s="19">
         <f t="shared" si="0"/>
         <v>4.7280445514084001E-4</v>
       </c>
-      <c r="H82" s="36">
+      <c r="H82" s="31">
         <f t="shared" si="1"/>
         <v>9591.1792399447004</v>
       </c>
@@ -3145,67 +3232,67 @@
         <v>-1707</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" s="19">
+    <row r="83" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="14">
         <v>12</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E83" s="29">
         <v>3</v>
       </c>
-      <c r="F83" s="29">
+      <c r="F83" s="24">
         <f t="shared" si="0"/>
         <v>6.124410040684456E-7</v>
       </c>
-      <c r="H83" s="37">
+      <c r="H83" s="32">
         <f t="shared" si="1"/>
         <v>188.98875349644729</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I83" s="14">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C84" s="19">
+    <row r="84" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="14">
         <v>10</v>
       </c>
-      <c r="E84" s="34">
+      <c r="E84" s="29">
         <v>4</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F84" s="24">
         <f t="shared" si="0"/>
         <v>8.1658800542459416E-7</v>
       </c>
-      <c r="H84" s="37">
+      <c r="H84" s="32">
         <f t="shared" si="1"/>
         <v>157.49062791370608</v>
       </c>
-      <c r="I84" s="19">
+      <c r="I84" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>263</v>
+      <c r="A85" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="C85">
         <v>221</v>
       </c>
-      <c r="E85" s="35">
+      <c r="E85" s="30">
         <v>264</v>
       </c>
-      <c r="F85" s="24">
+      <c r="F85" s="19">
         <f t="shared" si="0"/>
         <v>5.3894808358023215E-5</v>
       </c>
-      <c r="H85" s="36">
+      <c r="H85" s="31">
         <f t="shared" si="1"/>
         <v>3480.5428768929041</v>
       </c>
@@ -3215,20 +3302,20 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>264</v>
+      <c r="A86" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="C86">
         <v>1258</v>
       </c>
-      <c r="E86" s="35">
+      <c r="E86" s="30">
         <v>10413</v>
       </c>
-      <c r="F86" s="24">
+      <c r="F86" s="19">
         <f t="shared" si="0"/>
         <v>2.1257827251215744E-3</v>
       </c>
-      <c r="H86" s="36">
+      <c r="H86" s="31">
         <f t="shared" si="1"/>
         <v>19812.320991544224</v>
       </c>
@@ -3237,44 +3324,44 @@
         <v>-9155</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="19">
+    <row r="87" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="14">
         <v>1252</v>
       </c>
-      <c r="E87" s="34">
+      <c r="E87" s="29">
         <v>10</v>
       </c>
-      <c r="F87" s="29">
+      <c r="F87" s="24">
         <f t="shared" si="0"/>
         <v>2.0414700135614852E-6</v>
       </c>
-      <c r="H87" s="37">
+      <c r="H87" s="32">
         <f t="shared" si="1"/>
         <v>19717.826614796002</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I87" s="14">
         <f t="shared" si="2"/>
         <v>1242</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
-        <v>266</v>
+      <c r="A88" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C88">
         <v>2605</v>
       </c>
-      <c r="E88" s="35">
+      <c r="E88" s="30">
         <v>15892</v>
       </c>
-      <c r="F88" s="24">
+      <c r="F88" s="19">
         <f t="shared" si="0"/>
         <v>3.2443041455519125E-3</v>
       </c>
-      <c r="H88" s="36">
+      <c r="H88" s="31">
         <f t="shared" si="1"/>
         <v>41026.308571520429</v>
       </c>
@@ -3284,20 +3371,20 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
-        <v>267</v>
+      <c r="A89" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="C89">
         <v>164836</v>
       </c>
-      <c r="E89" s="35">
+      <c r="E89" s="30">
         <v>2807886</v>
       </c>
-      <c r="F89" s="24">
+      <c r="F89" s="19">
         <f t="shared" si="0"/>
         <v>0.57322150704991048</v>
       </c>
-      <c r="H89" s="36">
+      <c r="H89" s="31">
         <f t="shared" si="1"/>
         <v>2596012.5142783653</v>
       </c>
@@ -3306,44 +3393,44 @@
         <v>-2643050</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C90" s="19">
+    <row r="90" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="14">
         <v>491</v>
       </c>
-      <c r="E90" s="34">
+      <c r="E90" s="29">
         <v>2</v>
       </c>
-      <c r="F90" s="29">
+      <c r="F90" s="24">
         <f t="shared" si="0"/>
         <v>4.0829400271229708E-7</v>
       </c>
-      <c r="H90" s="37">
+      <c r="H90" s="32">
         <f t="shared" si="1"/>
         <v>7732.7898305629678</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I90" s="14">
         <f t="shared" si="2"/>
         <v>489</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
-        <v>269</v>
+      <c r="A91" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="C91">
         <v>935</v>
       </c>
-      <c r="E91" s="35">
+      <c r="E91" s="30">
         <v>979</v>
       </c>
-      <c r="F91" s="24">
+      <c r="F91" s="19">
         <f t="shared" si="0"/>
         <v>1.9985991432766942E-4</v>
       </c>
-      <c r="H91" s="36">
+      <c r="H91" s="31">
         <f t="shared" si="1"/>
         <v>14725.373709931519</v>
       </c>
@@ -3353,20 +3440,20 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
-        <v>270</v>
+      <c r="A92" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="C92">
         <v>706</v>
       </c>
-      <c r="E92" s="35">
+      <c r="E92" s="30">
         <v>1020</v>
       </c>
-      <c r="F92" s="24">
+      <c r="F92" s="19">
         <f t="shared" si="0"/>
         <v>2.0822994138327151E-4</v>
       </c>
-      <c r="H92" s="36">
+      <c r="H92" s="31">
         <f t="shared" si="1"/>
         <v>11118.838330707649</v>
       </c>
@@ -3376,20 +3463,20 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>271</v>
+      <c r="A93" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="C93">
         <v>1825</v>
       </c>
-      <c r="E93" s="35">
+      <c r="E93" s="30">
         <v>20</v>
       </c>
-      <c r="F93" s="24">
+      <c r="F93" s="19">
         <f t="shared" si="0"/>
         <v>4.0829400271229705E-6</v>
       </c>
-      <c r="H93" s="36">
+      <c r="H93" s="31">
         <f t="shared" si="1"/>
         <v>28742.039594251357</v>
       </c>
@@ -3399,20 +3486,20 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>272</v>
+      <c r="A94" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="C94">
         <v>74148</v>
       </c>
-      <c r="E94" s="33">
+      <c r="E94" s="28">
         <v>972781</v>
       </c>
-      <c r="F94" s="24">
+      <c r="F94" s="19">
         <f t="shared" si="0"/>
         <v>0.19859032412623553</v>
       </c>
-      <c r="H94" s="36">
+      <c r="H94" s="31">
         <f t="shared" si="1"/>
         <v>1167761.5078545478</v>
       </c>
@@ -3426,11 +3513,11 @@
         <f>SUM(C72:C94)</f>
         <v>311030</v>
       </c>
-      <c r="E95" s="26">
+      <c r="E95" s="21">
         <f>SUM(E72:E94)</f>
         <v>4898431</v>
       </c>
-      <c r="F95" s="25">
+      <c r="F95" s="20">
         <f>SUM(F72:F94)</f>
         <v>1</v>
       </c>
@@ -3444,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A501408-6F56-B847-BAA1-AC44C822E189}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111:C133"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3459,1421 +3546,1421 @@
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="39" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="1" spans="1:9" s="34" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="41" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="I41" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="I42" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+    <row r="69" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="I64" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="I65" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+    <row r="70" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+    <row r="102" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="I75" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="I76" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="I77" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="I79" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="I83" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="I86" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="I87" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="I92" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="I95" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="I96" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="I97" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="I98" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="I99" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="103" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+      <c r="A103" s="12" t="s">
         <v>247</v>
       </c>
     </row>
+    <row r="106" spans="1:10" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
     <row r="109" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="F109" s="17" t="s">
+      <c r="A109" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="I109" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J109" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="111" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="22">
+      <c r="A111" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B111" s="18"/>
+      <c r="C111" s="17">
         <v>1577</v>
       </c>
-      <c r="D111" s="24">
+      <c r="D111" s="19">
         <f>C111/$C$134</f>
         <v>5.0702504581551615E-3</v>
       </c>
-      <c r="E111" s="23"/>
+      <c r="E111" s="18"/>
       <c r="F111" s="7">
         <v>2203</v>
       </c>
-      <c r="G111" s="24">
+      <c r="G111" s="19">
         <f>F111/$F$134</f>
         <v>4.4973584398759519E-4</v>
       </c>
-      <c r="H111" s="23"/>
+      <c r="H111" s="18"/>
       <c r="I111" s="7">
         <f>C111*$F$134/$C$134</f>
         <v>24836.272021991448</v>
       </c>
-      <c r="J111" s="26">
+      <c r="J111" s="21">
         <f>I111-F111</f>
         <v>22633.272021991448</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="22">
+      <c r="A112" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B112" s="18"/>
+      <c r="C112" s="17">
         <v>33</v>
       </c>
-      <c r="D112" s="24">
+      <c r="D112" s="19">
         <f>C112/$C$134</f>
         <v>1.0609909011992413E-4</v>
       </c>
-      <c r="E112" s="23"/>
+      <c r="E112" s="18"/>
       <c r="F112" s="7">
         <v>30</v>
       </c>
-      <c r="G112" s="24">
+      <c r="G112" s="19">
         <f t="shared" ref="G112:G133" si="0">F112/$F$134</f>
         <v>6.1244100406844562E-6</v>
       </c>
-      <c r="H112" s="23"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="7">
         <f t="shared" ref="I112:I133" si="1">C112*$F$134/$C$134</f>
         <v>519.71907211523001</v>
       </c>
-      <c r="J112" s="26">
+      <c r="J112" s="21">
         <f t="shared" ref="J112:J133" si="2">I112-F112</f>
         <v>489.71907211523001</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B113" s="27"/>
-      <c r="C113" s="28">
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B113" s="22"/>
+      <c r="C113" s="23">
         <v>7</v>
       </c>
-      <c r="D113" s="29">
+      <c r="D113" s="24">
         <f>C113/$C$134</f>
         <v>2.2505867601196028E-5</v>
       </c>
-      <c r="E113" s="27"/>
-      <c r="F113" s="30">
+      <c r="E113" s="22"/>
+      <c r="F113" s="25">
         <v>8</v>
       </c>
-      <c r="G113" s="29">
+      <c r="G113" s="24">
         <f t="shared" si="0"/>
         <v>1.6331760108491883E-6</v>
       </c>
-      <c r="H113" s="27"/>
-      <c r="I113" s="31">
+      <c r="H113" s="22"/>
+      <c r="I113" s="26">
         <f t="shared" si="1"/>
         <v>110.24343953959425</v>
       </c>
-      <c r="J113" s="32">
+      <c r="J113" s="27">
         <f t="shared" si="2"/>
         <v>102.24343953959425</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="22">
+      <c r="A114" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B114" s="18"/>
+      <c r="C114" s="17">
         <v>474</v>
       </c>
-      <c r="D114" s="24">
+      <c r="D114" s="19">
         <f>C114/$C$134</f>
         <v>1.5239687489952737E-3</v>
       </c>
-      <c r="E114" s="23"/>
+      <c r="E114" s="18"/>
       <c r="F114" s="1">
         <v>53</v>
       </c>
-      <c r="G114" s="24">
+      <c r="G114" s="19">
         <f t="shared" si="0"/>
         <v>1.0819791071875872E-5</v>
       </c>
-      <c r="H114" s="23"/>
+      <c r="H114" s="18"/>
       <c r="I114" s="7">
         <f t="shared" si="1"/>
         <v>7465.0557631096681</v>
       </c>
-      <c r="J114" s="26">
+      <c r="J114" s="21">
         <f t="shared" si="2"/>
         <v>7412.0557631096681</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="22">
+      <c r="A115" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" s="18"/>
+      <c r="C115" s="17">
         <v>32</v>
       </c>
-      <c r="D115" s="24">
+      <c r="D115" s="19">
         <f>C115/$C$134</f>
         <v>1.0288396617689612E-4</v>
       </c>
-      <c r="E115" s="23"/>
+      <c r="E115" s="18"/>
       <c r="F115" s="1">
         <v>12</v>
       </c>
-      <c r="G115" s="24">
+      <c r="G115" s="19">
         <f t="shared" si="0"/>
         <v>2.4497640162737824E-6</v>
       </c>
-      <c r="H115" s="23"/>
+      <c r="H115" s="18"/>
       <c r="I115" s="7">
         <f t="shared" si="1"/>
         <v>503.97000932385941</v>
       </c>
-      <c r="J115" s="26">
+      <c r="J115" s="21">
         <f t="shared" si="2"/>
         <v>491.97000932385941</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="22">
+      <c r="A116" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="C116" s="17">
         <v>695</v>
       </c>
-      <c r="D116" s="24">
+      <c r="D116" s="19">
         <f>C116/$C$134</f>
         <v>2.2345111404044626E-3</v>
       </c>
-      <c r="E116" s="23"/>
+      <c r="E116" s="18"/>
       <c r="F116" s="1">
         <v>12481</v>
       </c>
-      <c r="G116" s="24">
+      <c r="G116" s="19">
         <f t="shared" si="0"/>
         <v>2.54795872392609E-3</v>
       </c>
-      <c r="H116" s="23"/>
+      <c r="H116" s="18"/>
       <c r="I116" s="7">
         <f t="shared" si="1"/>
         <v>10945.598640002572</v>
       </c>
-      <c r="J116" s="26">
+      <c r="J116" s="21">
         <f t="shared" si="2"/>
         <v>-1535.4013599974278</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="22">
+      <c r="A117" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B117" s="18"/>
+      <c r="C117" s="17">
         <v>61</v>
       </c>
-      <c r="D117" s="24">
+      <c r="D117" s="19">
         <f>C117/$C$134</f>
         <v>1.9612256052470824E-4</v>
       </c>
-      <c r="E117" s="23"/>
+      <c r="E117" s="18"/>
       <c r="F117" s="1">
         <v>21</v>
       </c>
-      <c r="G117" s="24">
+      <c r="G117" s="19">
         <f t="shared" si="0"/>
         <v>4.2870870284791191E-6</v>
       </c>
-      <c r="H117" s="23"/>
+      <c r="H117" s="18"/>
       <c r="I117" s="7">
         <f t="shared" si="1"/>
         <v>960.692830273607</v>
       </c>
-      <c r="J117" s="26">
+      <c r="J117" s="21">
         <f t="shared" si="2"/>
         <v>939.692830273607</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="B118" s="27"/>
-      <c r="C118" s="28">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B118" s="22"/>
+      <c r="C118" s="23">
         <v>41</v>
       </c>
-      <c r="D118" s="29">
+      <c r="D118" s="24">
         <f>C118/$C$134</f>
         <v>1.3182008166414815E-4</v>
       </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="30">
+      <c r="E118" s="22"/>
+      <c r="F118" s="25">
         <v>9</v>
       </c>
-      <c r="G118" s="29">
+      <c r="G118" s="24">
         <f t="shared" si="0"/>
         <v>1.8373230122053367E-6</v>
       </c>
-      <c r="H118" s="27"/>
-      <c r="I118" s="31">
+      <c r="H118" s="22"/>
+      <c r="I118" s="26">
         <f t="shared" si="1"/>
         <v>645.71157444619485</v>
       </c>
-      <c r="J118" s="32">
+      <c r="J118" s="27">
         <f t="shared" si="2"/>
         <v>636.71157444619485</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B119" s="27"/>
-      <c r="C119" s="28">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" s="22"/>
+      <c r="C119" s="23">
         <v>43</v>
       </c>
-      <c r="D119" s="29">
+      <c r="D119" s="24">
         <f>C119/$C$134</f>
         <v>1.3825032955020416E-4</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="30">
+      <c r="E119" s="22"/>
+      <c r="F119" s="25">
         <v>7</v>
       </c>
-      <c r="G119" s="29">
+      <c r="G119" s="24">
         <f t="shared" si="0"/>
         <v>1.4290290094930398E-6</v>
       </c>
-      <c r="H119" s="27"/>
-      <c r="I119" s="31">
+      <c r="H119" s="22"/>
+      <c r="I119" s="26">
         <f t="shared" si="1"/>
         <v>677.20970002893614</v>
       </c>
-      <c r="J119" s="32">
+      <c r="J119" s="27">
         <f t="shared" si="2"/>
         <v>670.20970002893614</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="22">
+      <c r="A120" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120" s="18"/>
+      <c r="C120" s="17">
         <v>57864</v>
       </c>
-      <c r="D120" s="24">
+      <c r="D120" s="19">
         <f>C120/$C$134</f>
         <v>0.1860399318393724</v>
       </c>
-      <c r="E120" s="23"/>
+      <c r="E120" s="18"/>
       <c r="F120" s="1">
         <v>1072017</v>
       </c>
-      <c r="G120" s="24">
+      <c r="G120" s="19">
         <f t="shared" si="0"/>
         <v>0.21884905595281429</v>
       </c>
-      <c r="H120" s="23"/>
+      <c r="H120" s="18"/>
       <c r="I120" s="7">
         <f t="shared" si="1"/>
         <v>911303.76935986883</v>
       </c>
-      <c r="J120" s="26">
+      <c r="J120" s="21">
         <f t="shared" si="2"/>
         <v>-160713.23064013117</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="22">
+      <c r="A121" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="18"/>
+      <c r="C121" s="17">
         <v>446</v>
       </c>
-      <c r="D121" s="24">
+      <c r="D121" s="19">
         <f>C121/$C$134</f>
         <v>1.4339452785904897E-3</v>
       </c>
-      <c r="E121" s="23"/>
+      <c r="E121" s="18"/>
       <c r="F121" s="1">
         <v>2316</v>
       </c>
-      <c r="G121" s="24">
+      <c r="G121" s="19">
         <f t="shared" si="0"/>
         <v>4.7280445514084001E-4</v>
       </c>
-      <c r="H121" s="23"/>
+      <c r="H121" s="18"/>
       <c r="I121" s="7">
         <f t="shared" si="1"/>
         <v>7024.0820049512913</v>
       </c>
-      <c r="J121" s="26">
+      <c r="J121" s="21">
         <f t="shared" si="2"/>
         <v>4708.0820049512913</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="B122" s="27"/>
-      <c r="C122" s="28">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="22"/>
+      <c r="C122" s="23">
         <v>13</v>
       </c>
-      <c r="D122" s="29">
+      <c r="D122" s="24">
         <f>C122/$C$134</f>
         <v>4.1796611259364045E-5</v>
       </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="30">
+      <c r="E122" s="22"/>
+      <c r="F122" s="25">
         <v>3</v>
       </c>
-      <c r="G122" s="29">
+      <c r="G122" s="24">
         <f t="shared" si="0"/>
         <v>6.124410040684456E-7</v>
       </c>
-      <c r="H122" s="27"/>
-      <c r="I122" s="31">
+      <c r="H122" s="22"/>
+      <c r="I122" s="26">
         <f t="shared" si="1"/>
         <v>204.73781628781791</v>
       </c>
-      <c r="J122" s="32">
+      <c r="J122" s="27">
         <f t="shared" si="2"/>
         <v>201.73781628781791</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="B123" s="27"/>
-      <c r="C123" s="28">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" s="22"/>
+      <c r="C123" s="23">
         <v>4</v>
       </c>
-      <c r="D123" s="29">
+      <c r="D123" s="24">
         <f>C123/$C$134</f>
         <v>1.2860495772112015E-5</v>
       </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="30">
+      <c r="E123" s="22"/>
+      <c r="F123" s="25">
         <v>4</v>
       </c>
-      <c r="G123" s="29">
+      <c r="G123" s="24">
         <f t="shared" si="0"/>
         <v>8.1658800542459416E-7</v>
       </c>
-      <c r="H123" s="27"/>
-      <c r="I123" s="31">
+      <c r="H123" s="22"/>
+      <c r="I123" s="26">
         <f t="shared" si="1"/>
         <v>62.996251165482427</v>
       </c>
-      <c r="J123" s="32">
+      <c r="J123" s="27">
         <f t="shared" si="2"/>
         <v>58.996251165482427</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="22">
+      <c r="A124" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="17">
         <v>232</v>
       </c>
-      <c r="D124" s="24">
+      <c r="D124" s="19">
         <f>C124/$C$134</f>
         <v>7.4590875478249691E-4</v>
       </c>
-      <c r="E124" s="23"/>
+      <c r="E124" s="18"/>
       <c r="F124" s="1">
         <v>264</v>
       </c>
-      <c r="G124" s="24">
+      <c r="G124" s="19">
         <f t="shared" si="0"/>
         <v>5.3894808358023215E-5</v>
       </c>
-      <c r="H124" s="23"/>
+      <c r="H124" s="18"/>
       <c r="I124" s="7">
         <f t="shared" si="1"/>
         <v>3653.7825675979807</v>
       </c>
-      <c r="J124" s="26">
+      <c r="J124" s="21">
         <f t="shared" si="2"/>
         <v>3389.7825675979807</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="22">
+      <c r="A125" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B125" s="18"/>
+      <c r="C125" s="17">
         <v>660</v>
       </c>
-      <c r="D125" s="24">
+      <c r="D125" s="19">
         <f>C125/$C$134</f>
         <v>2.1219818023984825E-3</v>
       </c>
-      <c r="E125" s="23"/>
+      <c r="E125" s="18"/>
       <c r="F125" s="1">
         <v>10413</v>
       </c>
-      <c r="G125" s="24">
+      <c r="G125" s="19">
         <f t="shared" si="0"/>
         <v>2.1257827251215744E-3</v>
       </c>
-      <c r="H125" s="23"/>
+      <c r="H125" s="18"/>
       <c r="I125" s="7">
         <f t="shared" si="1"/>
         <v>10394.381442304601</v>
       </c>
-      <c r="J125" s="26">
+      <c r="J125" s="21">
         <f t="shared" si="2"/>
         <v>-18.618557695399431</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B126" s="27"/>
-      <c r="C126" s="28">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B126" s="22"/>
+      <c r="C126" s="23">
         <v>106</v>
       </c>
-      <c r="D126" s="29">
+      <c r="D126" s="24">
         <f>C126/$C$134</f>
         <v>3.4080313796096837E-4</v>
       </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="30">
+      <c r="E126" s="22"/>
+      <c r="F126" s="25">
         <v>10</v>
       </c>
-      <c r="G126" s="29">
+      <c r="G126" s="24">
         <f t="shared" si="0"/>
         <v>2.0414700135614852E-6</v>
       </c>
-      <c r="H126" s="27"/>
-      <c r="I126" s="31">
+      <c r="H126" s="22"/>
+      <c r="I126" s="26">
         <f t="shared" si="1"/>
         <v>1669.4006558852843</v>
       </c>
-      <c r="J126" s="32">
+      <c r="J126" s="27">
         <f t="shared" si="2"/>
         <v>1659.4006558852843</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="22">
+      <c r="A127" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B127" s="18"/>
+      <c r="C127" s="17">
         <v>2441</v>
       </c>
-      <c r="D127" s="24">
+      <c r="D127" s="19">
         <f>C127/$C$134</f>
         <v>7.8481175449313569E-3</v>
       </c>
-      <c r="E127" s="23"/>
+      <c r="E127" s="18"/>
       <c r="F127" s="1">
         <v>15892</v>
       </c>
-      <c r="G127" s="24">
+      <c r="G127" s="19">
         <f t="shared" si="0"/>
         <v>3.2443041455519125E-3</v>
       </c>
-      <c r="H127" s="23"/>
+      <c r="H127" s="18"/>
       <c r="I127" s="7">
         <f t="shared" si="1"/>
         <v>38443.462273735655</v>
       </c>
-      <c r="J127" s="26">
+      <c r="J127" s="21">
         <f t="shared" si="2"/>
         <v>22551.462273735655</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="22">
+      <c r="A128" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" s="18"/>
+      <c r="C128" s="17">
         <v>164742</v>
       </c>
-      <c r="D128" s="24">
+      <c r="D128" s="19">
         <f>C128/$C$134</f>
         <v>0.52966594862231942</v>
       </c>
-      <c r="E128" s="23"/>
+      <c r="E128" s="18"/>
       <c r="F128" s="1">
         <v>2807886</v>
       </c>
-      <c r="G128" s="24">
+      <c r="G128" s="19">
         <f t="shared" si="0"/>
         <v>0.57322150704991048</v>
       </c>
-      <c r="H128" s="23"/>
+      <c r="H128" s="18"/>
       <c r="I128" s="7">
         <f t="shared" si="1"/>
         <v>2594532.1023759767</v>
       </c>
-      <c r="J128" s="26">
+      <c r="J128" s="21">
         <f t="shared" si="2"/>
         <v>-213353.89762402326</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B129" s="27"/>
-      <c r="C129" s="28">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" s="22"/>
+      <c r="C129" s="23">
         <v>85</v>
       </c>
-      <c r="D129" s="29">
+      <c r="D129" s="24">
         <f>C129/$C$134</f>
         <v>2.7328553515738033E-4</v>
       </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="30">
+      <c r="E129" s="22"/>
+      <c r="F129" s="25">
         <v>2</v>
       </c>
-      <c r="G129" s="29">
+      <c r="G129" s="24">
         <f t="shared" si="0"/>
         <v>4.0829400271229708E-7</v>
       </c>
-      <c r="H129" s="27"/>
-      <c r="I129" s="31">
+      <c r="H129" s="22"/>
+      <c r="I129" s="26">
         <f t="shared" si="1"/>
         <v>1338.6703372665015</v>
       </c>
-      <c r="J129" s="32">
+      <c r="J129" s="27">
         <f t="shared" si="2"/>
         <v>1336.6703372665015</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="22">
+      <c r="A130" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="17">
         <v>103</v>
       </c>
-      <c r="D130" s="24">
+      <c r="D130" s="19">
         <f>C130/$C$134</f>
         <v>3.3115776613188439E-4</v>
       </c>
-      <c r="E130" s="23"/>
+      <c r="E130" s="18"/>
       <c r="F130" s="1">
         <v>979</v>
       </c>
-      <c r="G130" s="24">
+      <c r="G130" s="19">
         <f t="shared" si="0"/>
         <v>1.9985991432766942E-4</v>
       </c>
-      <c r="H130" s="23"/>
+      <c r="H130" s="18"/>
       <c r="I130" s="7">
         <f t="shared" si="1"/>
         <v>1622.1534675111725</v>
       </c>
-      <c r="J130" s="26">
+      <c r="J130" s="21">
         <f t="shared" si="2"/>
         <v>643.15346751117249</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="22">
+      <c r="A131" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" s="18"/>
+      <c r="C131" s="17">
         <v>1721</v>
       </c>
-      <c r="D131" s="24">
+      <c r="D131" s="19">
         <f>C131/$C$134</f>
         <v>5.5332283059511943E-3</v>
       </c>
-      <c r="E131" s="23"/>
+      <c r="E131" s="18"/>
       <c r="F131" s="1">
         <v>1020</v>
       </c>
-      <c r="G131" s="24">
+      <c r="G131" s="19">
         <f t="shared" si="0"/>
         <v>2.0822994138327151E-4</v>
       </c>
-      <c r="H131" s="23"/>
+      <c r="H131" s="18"/>
       <c r="I131" s="7">
         <f t="shared" si="1"/>
         <v>27104.137063948816</v>
       </c>
-      <c r="J131" s="26">
+      <c r="J131" s="21">
         <f t="shared" si="2"/>
         <v>26084.137063948816</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="22">
+      <c r="A132" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" s="18"/>
+      <c r="C132" s="17">
         <v>34</v>
       </c>
-      <c r="D132" s="24">
+      <c r="D132" s="19">
         <f>C132/$C$134</f>
         <v>1.0931421406295213E-4</v>
       </c>
-      <c r="E132" s="23"/>
+      <c r="E132" s="18"/>
       <c r="F132" s="1">
         <v>20</v>
       </c>
-      <c r="G132" s="24">
+      <c r="G132" s="19">
         <f t="shared" si="0"/>
         <v>4.0829400271229705E-6</v>
       </c>
-      <c r="H132" s="23"/>
+      <c r="H132" s="18"/>
       <c r="I132" s="7">
         <f t="shared" si="1"/>
         <v>535.46813490660065</v>
       </c>
-      <c r="J132" s="26">
+      <c r="J132" s="21">
         <f t="shared" si="2"/>
         <v>515.46813490660065</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B133" s="23"/>
-      <c r="C133" s="22">
+      <c r="A133" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B133" s="18"/>
+      <c r="C133" s="17">
         <v>79616</v>
       </c>
-      <c r="D133" s="24">
+      <c r="D133" s="19">
         <f>C133/$C$134</f>
         <v>0.25597530784811756</v>
       </c>
-      <c r="E133" s="23"/>
+      <c r="E133" s="18"/>
       <c r="F133" s="7">
         <v>972781</v>
       </c>
-      <c r="G133" s="24">
+      <c r="G133" s="19">
         <f t="shared" si="0"/>
         <v>0.19859032412623553</v>
       </c>
-      <c r="H133" s="23"/>
+      <c r="H133" s="18"/>
       <c r="I133" s="7">
         <f t="shared" si="1"/>
         <v>1253877.3831977623</v>
       </c>
-      <c r="J133" s="26">
+      <c r="J133" s="21">
         <f t="shared" si="2"/>
         <v>281096.3831977623</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="22">
+      <c r="B134" s="18"/>
+      <c r="C134" s="17">
         <f>SUM(C111:C133)</f>
         <v>311030</v>
       </c>
-      <c r="D134" s="25">
+      <c r="D134" s="20">
         <f>SUM(D111:D133)</f>
         <v>1</v>
       </c>
-      <c r="E134" s="23"/>
-      <c r="F134" s="26">
+      <c r="E134" s="18"/>
+      <c r="F134" s="21">
         <f>SUM(F111:F133)</f>
         <v>4898431</v>
       </c>
-      <c r="G134" s="25">
+      <c r="G134" s="20">
         <f>SUM(G111:G133)</f>
         <v>1</v>
       </c>
-      <c r="H134" s="23"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="23"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="18"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A111:J133">
@@ -4887,8 +4974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9B0DC0-5782-1843-A1C3-96B2C53DA50B}">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q116" sqref="Q116"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4902,1490 +4989,1490 @@
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="39" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="1" spans="1:9" s="34" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="I30" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="I42" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+    <row r="69" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="I58" s="17" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="I64" s="17" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="I65" s="17" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+    <row r="70" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+    <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="I75" s="17" t="s">
+    <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="I76" s="17" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="I77" s="17" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="I79" s="18" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="I83" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="I86" s="17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="I87" s="18" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="I92" s="18" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="I95" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="I96" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="I97" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="I98" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="I99" s="17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
-        <v>447</v>
+    <row r="106" spans="1:13" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="F109" s="17" t="s">
+      <c r="A109" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="I109" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J109" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="22">
+      <c r="A111" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B111" s="18"/>
+      <c r="C111" s="17">
         <v>1629</v>
       </c>
-      <c r="D111" s="24">
+      <c r="D111" s="19">
         <f>C111/$C$134</f>
         <v>5.2374369031926177E-3</v>
       </c>
-      <c r="E111" s="23"/>
+      <c r="E111" s="18"/>
       <c r="F111" s="7">
         <v>2203</v>
       </c>
-      <c r="G111" s="24">
+      <c r="G111" s="19">
         <f>F111/$F$134</f>
         <v>4.4973584398759519E-4</v>
       </c>
-      <c r="H111" s="23"/>
+      <c r="H111" s="18"/>
       <c r="I111" s="7">
         <f>C111*$F$134/$C$134</f>
         <v>25655.223287142719</v>
       </c>
-      <c r="J111" s="26">
+      <c r="J111" s="21">
         <f>I111-F111</f>
         <v>23452.223287142719</v>
       </c>
-      <c r="M111" s="22">
+      <c r="M111" s="17">
         <v>1577</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="22">
+      <c r="A112" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B112" s="18"/>
+      <c r="C112" s="17">
         <v>27</v>
       </c>
-      <c r="D112" s="24">
+      <c r="D112" s="19">
         <f>C112/$C$134</f>
         <v>8.6808346461756094E-5</v>
       </c>
-      <c r="E112" s="23"/>
+      <c r="E112" s="18"/>
       <c r="F112" s="7">
         <v>30</v>
       </c>
-      <c r="G112" s="24">
+      <c r="G112" s="19">
         <f t="shared" ref="G112:G133" si="0">F112/$F$134</f>
         <v>6.1244100406844562E-6</v>
       </c>
-      <c r="H112" s="23"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="7">
         <f t="shared" ref="I112:I133" si="1">C112*$F$134/$C$134</f>
         <v>425.2246953670064</v>
       </c>
-      <c r="J112" s="26">
+      <c r="J112" s="21">
         <f t="shared" ref="J112:J133" si="2">I112-F112</f>
         <v>395.2246953670064</v>
       </c>
-      <c r="M112" s="22">
+      <c r="M112" s="17">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B113" s="27"/>
-      <c r="C113" s="28">
+    <row r="113" spans="1:13" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D113" s="29">
+      <c r="B113" s="22"/>
+      <c r="C113" s="23">
+        <v>253</v>
+      </c>
+      <c r="D113" s="24">
         <f>C113/$C$134</f>
         <v>8.13426357586085E-4</v>
       </c>
-      <c r="E113" s="27"/>
-      <c r="F113" s="30">
+      <c r="E113" s="22"/>
+      <c r="F113" s="25">
         <v>8</v>
       </c>
-      <c r="G113" s="29">
+      <c r="G113" s="24">
         <f t="shared" si="0"/>
         <v>1.6331760108491883E-6</v>
       </c>
-      <c r="H113" s="27"/>
-      <c r="I113" s="31">
+      <c r="H113" s="22"/>
+      <c r="I113" s="26">
         <f t="shared" si="1"/>
         <v>3984.5128862167635</v>
       </c>
-      <c r="J113" s="32">
+      <c r="J113" s="27">
         <f t="shared" si="2"/>
         <v>3976.5128862167635</v>
       </c>
-      <c r="M113" s="28">
+      <c r="M113" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="22">
+      <c r="A114" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B114" s="18"/>
+      <c r="C114" s="17">
         <v>156</v>
       </c>
-      <c r="D114" s="24">
+      <c r="D114" s="19">
         <f>C114/$C$134</f>
         <v>5.0155933511236857E-4</v>
       </c>
-      <c r="E114" s="23"/>
+      <c r="E114" s="18"/>
       <c r="F114" s="1">
         <v>53</v>
       </c>
-      <c r="G114" s="24">
+      <c r="G114" s="19">
         <f t="shared" si="0"/>
         <v>1.0819791071875872E-5</v>
       </c>
-      <c r="H114" s="23"/>
+      <c r="H114" s="18"/>
       <c r="I114" s="7">
         <f t="shared" si="1"/>
         <v>2456.8537954538147</v>
       </c>
-      <c r="J114" s="26">
+      <c r="J114" s="21">
         <f t="shared" si="2"/>
         <v>2403.8537954538147</v>
       </c>
-      <c r="M114" s="22">
+      <c r="M114" s="17">
         <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="22">
+      <c r="A115" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" s="18"/>
+      <c r="C115" s="17">
         <v>73</v>
       </c>
-      <c r="D115" s="24">
+      <c r="D115" s="19">
         <f>C115/$C$134</f>
         <v>2.3470404784104427E-4</v>
       </c>
-      <c r="E115" s="23"/>
+      <c r="E115" s="18"/>
       <c r="F115" s="1">
         <v>12</v>
       </c>
-      <c r="G115" s="24">
+      <c r="G115" s="19">
         <f t="shared" si="0"/>
         <v>2.4497640162737824E-6</v>
       </c>
-      <c r="H115" s="23"/>
+      <c r="H115" s="18"/>
       <c r="I115" s="7">
         <f t="shared" si="1"/>
         <v>1149.6815837700544</v>
       </c>
-      <c r="J115" s="26">
+      <c r="J115" s="21">
         <f t="shared" si="2"/>
         <v>1137.6815837700544</v>
       </c>
-      <c r="M115" s="22">
+      <c r="M115" s="17">
         <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="22">
+      <c r="A116" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="C116" s="17">
         <v>976</v>
       </c>
-      <c r="D116" s="24">
+      <c r="D116" s="19">
         <f>C116/$C$134</f>
         <v>3.1379609683953318E-3</v>
       </c>
-      <c r="E116" s="23"/>
+      <c r="E116" s="18"/>
       <c r="F116" s="1">
         <v>12481</v>
       </c>
-      <c r="G116" s="24">
+      <c r="G116" s="19">
         <f t="shared" si="0"/>
         <v>2.54795872392609E-3</v>
       </c>
-      <c r="H116" s="23"/>
+      <c r="H116" s="18"/>
       <c r="I116" s="7">
         <f t="shared" si="1"/>
         <v>15371.085284377712</v>
       </c>
-      <c r="J116" s="26">
+      <c r="J116" s="21">
         <f t="shared" si="2"/>
         <v>2890.085284377712</v>
       </c>
-      <c r="M116" s="22">
+      <c r="M116" s="17">
         <v>695</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="22">
+      <c r="A117" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B117" s="18"/>
+      <c r="C117" s="17">
         <v>9</v>
       </c>
-      <c r="D117" s="24">
+      <c r="D117" s="19">
         <f>C117/$C$134</f>
         <v>2.8936115487252034E-5</v>
       </c>
-      <c r="E117" s="23"/>
+      <c r="E117" s="18"/>
       <c r="F117" s="1">
         <v>21</v>
       </c>
-      <c r="G117" s="24">
+      <c r="G117" s="19">
         <f t="shared" si="0"/>
         <v>4.2870870284791191E-6</v>
       </c>
-      <c r="H117" s="23"/>
+      <c r="H117" s="18"/>
       <c r="I117" s="7">
         <f t="shared" si="1"/>
         <v>141.74156512233546</v>
       </c>
-      <c r="J117" s="26">
+      <c r="J117" s="21">
         <f t="shared" si="2"/>
         <v>120.74156512233546</v>
       </c>
-      <c r="M117" s="22">
+      <c r="M117" s="17">
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="B118" s="27"/>
-      <c r="C118" s="28">
+    <row r="118" spans="1:13" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B118" s="22"/>
+      <c r="C118" s="23">
         <v>21</v>
       </c>
-      <c r="D118" s="29">
+      <c r="D118" s="24">
         <f>C118/$C$134</f>
         <v>6.7517602803588076E-5</v>
       </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="30">
+      <c r="E118" s="22"/>
+      <c r="F118" s="25">
         <v>9</v>
       </c>
-      <c r="G118" s="29">
+      <c r="G118" s="24">
         <f t="shared" si="0"/>
         <v>1.8373230122053367E-6</v>
       </c>
-      <c r="H118" s="27"/>
-      <c r="I118" s="31">
+      <c r="H118" s="22"/>
+      <c r="I118" s="26">
         <f t="shared" si="1"/>
         <v>330.73031861878275</v>
       </c>
-      <c r="J118" s="32">
+      <c r="J118" s="27">
         <f t="shared" si="2"/>
         <v>321.73031861878275</v>
       </c>
-      <c r="M118" s="28">
+      <c r="M118" s="23">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B119" s="27"/>
-      <c r="C119" s="28">
+    <row r="119" spans="1:13" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" s="22"/>
+      <c r="C119" s="23">
         <v>182</v>
       </c>
-      <c r="D119" s="29">
+      <c r="D119" s="24">
         <f>C119/$C$134</f>
         <v>5.851525576310967E-4</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="30">
+      <c r="E119" s="22"/>
+      <c r="F119" s="25">
         <v>7</v>
       </c>
-      <c r="G119" s="29">
+      <c r="G119" s="24">
         <f t="shared" si="0"/>
         <v>1.4290290094930398E-6</v>
       </c>
-      <c r="H119" s="27"/>
-      <c r="I119" s="31">
+      <c r="H119" s="22"/>
+      <c r="I119" s="26">
         <f t="shared" si="1"/>
         <v>2866.3294280294504</v>
       </c>
-      <c r="J119" s="32">
+      <c r="J119" s="27">
         <f t="shared" si="2"/>
         <v>2859.3294280294504</v>
       </c>
-      <c r="M119" s="28">
+      <c r="M119" s="23">
         <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="22">
+      <c r="A120" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120" s="18"/>
+      <c r="C120" s="17">
         <v>57980</v>
       </c>
-      <c r="D120" s="24">
+      <c r="D120" s="19">
         <f>C120/$C$134</f>
         <v>0.18641288621676366</v>
       </c>
-      <c r="E120" s="23"/>
+      <c r="E120" s="18"/>
       <c r="F120" s="1">
         <v>1072017</v>
       </c>
-      <c r="G120" s="24">
+      <c r="G120" s="19">
         <f t="shared" si="0"/>
         <v>0.21884905595281429</v>
       </c>
-      <c r="H120" s="23"/>
+      <c r="H120" s="18"/>
       <c r="I120" s="7">
         <f t="shared" si="1"/>
         <v>913130.6606436678</v>
       </c>
-      <c r="J120" s="26">
+      <c r="J120" s="21">
         <f t="shared" si="2"/>
         <v>-158886.3393563322</v>
       </c>
-      <c r="M120" s="22">
+      <c r="M120" s="17">
         <v>57864</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="22">
+      <c r="A121" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="18"/>
+      <c r="C121" s="17">
         <v>6445</v>
       </c>
-      <c r="D121" s="24">
+      <c r="D121" s="19">
         <f>C121/$C$134</f>
         <v>2.0721473812815486E-2</v>
       </c>
-      <c r="E121" s="23"/>
+      <c r="E121" s="18"/>
       <c r="F121" s="1">
         <v>2316</v>
       </c>
-      <c r="G121" s="24">
+      <c r="G121" s="19">
         <f t="shared" si="0"/>
         <v>4.7280445514084001E-4</v>
       </c>
-      <c r="H121" s="23"/>
+      <c r="H121" s="18"/>
       <c r="I121" s="7">
         <f t="shared" si="1"/>
         <v>101502.70969038356</v>
       </c>
-      <c r="J121" s="26">
+      <c r="J121" s="21">
         <f t="shared" si="2"/>
         <v>99186.709690383563</v>
       </c>
-      <c r="M121" s="22">
+      <c r="M121" s="17">
         <v>446</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="B122" s="27"/>
-      <c r="C122" s="28">
+    <row r="122" spans="1:13" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="22"/>
+      <c r="C122" s="23">
         <v>13</v>
       </c>
-      <c r="D122" s="29">
+      <c r="D122" s="24">
         <f>C122/$C$134</f>
         <v>4.1796611259364045E-5</v>
       </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="30">
+      <c r="E122" s="22"/>
+      <c r="F122" s="25">
         <v>3</v>
       </c>
-      <c r="G122" s="29">
+      <c r="G122" s="24">
         <f t="shared" si="0"/>
         <v>6.124410040684456E-7</v>
       </c>
-      <c r="H122" s="27"/>
-      <c r="I122" s="31">
+      <c r="H122" s="22"/>
+      <c r="I122" s="26">
         <f t="shared" si="1"/>
         <v>204.73781628781791</v>
       </c>
-      <c r="J122" s="32">
+      <c r="J122" s="27">
         <f t="shared" si="2"/>
         <v>201.73781628781791</v>
       </c>
-      <c r="M122" s="28">
+      <c r="M122" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="B123" s="27"/>
-      <c r="C123" s="28">
+    <row r="123" spans="1:13" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" s="22"/>
+      <c r="C123" s="23">
         <v>1</v>
       </c>
-      <c r="D123" s="29">
+      <c r="D123" s="24">
         <f>C123/$C$134</f>
         <v>3.2151239430280038E-6</v>
       </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="30">
+      <c r="E123" s="22"/>
+      <c r="F123" s="25">
         <v>4</v>
       </c>
-      <c r="G123" s="29">
+      <c r="G123" s="24">
         <f t="shared" si="0"/>
         <v>8.1658800542459416E-7</v>
       </c>
-      <c r="H123" s="27"/>
-      <c r="I123" s="31">
+      <c r="H123" s="22"/>
+      <c r="I123" s="26">
         <f t="shared" si="1"/>
         <v>15.749062791370607</v>
       </c>
-      <c r="J123" s="32">
+      <c r="J123" s="27">
         <f t="shared" si="2"/>
         <v>11.749062791370607</v>
       </c>
-      <c r="M123" s="28">
+      <c r="M123" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="22">
+      <c r="A124" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="17">
         <v>122</v>
       </c>
-      <c r="D124" s="24">
+      <c r="D124" s="19">
         <f>C124/$C$134</f>
         <v>3.9224512104941647E-4</v>
       </c>
-      <c r="E124" s="23"/>
+      <c r="E124" s="18"/>
       <c r="F124" s="1">
         <v>264</v>
       </c>
-      <c r="G124" s="24">
+      <c r="G124" s="19">
         <f t="shared" si="0"/>
         <v>5.3894808358023215E-5</v>
       </c>
-      <c r="H124" s="23"/>
+      <c r="H124" s="18"/>
       <c r="I124" s="7">
         <f t="shared" si="1"/>
         <v>1921.385660547214</v>
       </c>
-      <c r="J124" s="26">
+      <c r="J124" s="21">
         <f t="shared" si="2"/>
         <v>1657.385660547214</v>
       </c>
-      <c r="M124" s="22">
+      <c r="M124" s="17">
         <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="22">
+      <c r="A125" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B125" s="18"/>
+      <c r="C125" s="17">
         <v>801</v>
       </c>
-      <c r="D125" s="24">
+      <c r="D125" s="19">
         <f>C125/$C$134</f>
         <v>2.575314278365431E-3</v>
       </c>
-      <c r="E125" s="23"/>
+      <c r="E125" s="18"/>
       <c r="F125" s="1">
         <v>10413</v>
       </c>
-      <c r="G125" s="24">
+      <c r="G125" s="19">
         <f t="shared" si="0"/>
         <v>2.1257827251215744E-3</v>
       </c>
-      <c r="H125" s="23"/>
+      <c r="H125" s="18"/>
       <c r="I125" s="7">
         <f t="shared" si="1"/>
         <v>12614.999295887856</v>
       </c>
-      <c r="J125" s="26">
+      <c r="J125" s="21">
         <f t="shared" si="2"/>
         <v>2201.9992958878556</v>
       </c>
-      <c r="M125" s="22">
+      <c r="M125" s="17">
         <v>660</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B126" s="27"/>
-      <c r="C126" s="28">
+    <row r="126" spans="1:13" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B126" s="22"/>
+      <c r="C126" s="23">
         <v>442</v>
       </c>
-      <c r="D126" s="29">
+      <c r="D126" s="24">
         <f>C126/$C$134</f>
         <v>1.4210847828183776E-3</v>
       </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="30">
+      <c r="E126" s="22"/>
+      <c r="F126" s="25">
         <v>10</v>
       </c>
-      <c r="G126" s="29">
+      <c r="G126" s="24">
         <f t="shared" si="0"/>
         <v>2.0414700135614852E-6</v>
       </c>
-      <c r="H126" s="27"/>
-      <c r="I126" s="31">
+      <c r="H126" s="22"/>
+      <c r="I126" s="26">
         <f t="shared" si="1"/>
         <v>6961.0857537858083</v>
       </c>
-      <c r="J126" s="32">
+      <c r="J126" s="27">
         <f t="shared" si="2"/>
         <v>6951.0857537858083</v>
       </c>
-      <c r="M126" s="28">
+      <c r="M126" s="23">
         <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="22">
+      <c r="A127" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B127" s="18"/>
+      <c r="C127" s="17">
         <v>2640</v>
       </c>
-      <c r="D127" s="24">
+      <c r="D127" s="19">
         <f>C127/$C$134</f>
         <v>8.48792720959393E-3</v>
       </c>
-      <c r="E127" s="23"/>
+      <c r="E127" s="18"/>
       <c r="F127" s="1">
         <v>15892</v>
       </c>
-      <c r="G127" s="24">
+      <c r="G127" s="19">
         <f t="shared" si="0"/>
         <v>3.2443041455519125E-3</v>
       </c>
-      <c r="H127" s="23"/>
+      <c r="H127" s="18"/>
       <c r="I127" s="7">
         <f t="shared" si="1"/>
         <v>41577.525769218402</v>
       </c>
-      <c r="J127" s="26">
+      <c r="J127" s="21">
         <f t="shared" si="2"/>
         <v>25685.525769218402</v>
       </c>
-      <c r="M127" s="22">
+      <c r="M127" s="17">
         <v>2441</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="22">
+      <c r="A128" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" s="18"/>
+      <c r="C128" s="17">
         <v>164130</v>
       </c>
-      <c r="D128" s="24">
+      <c r="D128" s="19">
         <f>C128/$C$134</f>
         <v>0.52769829276918623</v>
       </c>
-      <c r="E128" s="23"/>
+      <c r="E128" s="18"/>
       <c r="F128" s="1">
         <v>2807886</v>
       </c>
-      <c r="G128" s="24">
+      <c r="G128" s="19">
         <f t="shared" si="0"/>
         <v>0.57322150704991048</v>
       </c>
-      <c r="H128" s="23"/>
+      <c r="H128" s="18"/>
       <c r="I128" s="7">
         <f t="shared" si="1"/>
         <v>2584893.6759476578</v>
       </c>
-      <c r="J128" s="26">
+      <c r="J128" s="21">
         <f t="shared" si="2"/>
         <v>-222992.32405234221</v>
       </c>
-      <c r="M128" s="22">
+      <c r="M128" s="17">
         <v>164742</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B129" s="27"/>
-      <c r="C129" s="28">
+    <row r="129" spans="1:13" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" s="22"/>
+      <c r="C129" s="23">
         <v>724</v>
       </c>
-      <c r="D129" s="29">
+      <c r="D129" s="24">
         <f>C129/$C$134</f>
         <v>2.3277497347522747E-3</v>
       </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="30">
+      <c r="E129" s="22"/>
+      <c r="F129" s="25">
         <v>2</v>
       </c>
-      <c r="G129" s="29">
+      <c r="G129" s="24">
         <f t="shared" si="0"/>
         <v>4.0829400271229708E-7</v>
       </c>
-      <c r="H129" s="27"/>
-      <c r="I129" s="31">
+      <c r="H129" s="22"/>
+      <c r="I129" s="26">
         <f t="shared" si="1"/>
         <v>11402.32146095232</v>
       </c>
-      <c r="J129" s="32">
+      <c r="J129" s="27">
         <f t="shared" si="2"/>
         <v>11400.32146095232</v>
       </c>
-      <c r="M129" s="28">
+      <c r="M129" s="23">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="22">
+      <c r="A130" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="17">
         <v>110</v>
       </c>
-      <c r="D130" s="24">
+      <c r="D130" s="19">
         <f>C130/$C$134</f>
         <v>3.5366363373308044E-4</v>
       </c>
-      <c r="E130" s="23"/>
+      <c r="E130" s="18"/>
       <c r="F130" s="1">
         <v>979</v>
       </c>
-      <c r="G130" s="24">
+      <c r="G130" s="19">
         <f t="shared" si="0"/>
         <v>1.9985991432766942E-4</v>
       </c>
-      <c r="H130" s="23"/>
+      <c r="H130" s="18"/>
       <c r="I130" s="7">
         <f t="shared" si="1"/>
         <v>1732.3969070507669</v>
       </c>
-      <c r="J130" s="26">
+      <c r="J130" s="21">
         <f t="shared" si="2"/>
         <v>753.39690705076691</v>
       </c>
-      <c r="M130" s="22">
+      <c r="M130" s="17">
         <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="22">
+      <c r="A131" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" s="18"/>
+      <c r="C131" s="17">
         <v>786</v>
       </c>
-      <c r="D131" s="24">
+      <c r="D131" s="19">
         <f>C131/$C$134</f>
         <v>2.527087419220011E-3</v>
       </c>
-      <c r="E131" s="23"/>
+      <c r="E131" s="18"/>
       <c r="F131" s="1">
         <v>1020</v>
       </c>
-      <c r="G131" s="24">
+      <c r="G131" s="19">
         <f t="shared" si="0"/>
         <v>2.0822994138327151E-4</v>
       </c>
-      <c r="H131" s="23"/>
+      <c r="H131" s="18"/>
       <c r="I131" s="7">
         <f t="shared" si="1"/>
         <v>12378.763354017297</v>
       </c>
-      <c r="J131" s="26">
+      <c r="J131" s="21">
         <f t="shared" si="2"/>
         <v>11358.763354017297</v>
       </c>
-      <c r="M131" s="22">
+      <c r="M131" s="17">
         <v>1721</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="22">
+      <c r="A132" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" s="18"/>
+      <c r="C132" s="17">
         <v>1084</v>
       </c>
-      <c r="D132" s="24">
+      <c r="D132" s="19">
         <f>C132/$C$134</f>
         <v>3.485194354242356E-3</v>
       </c>
-      <c r="E132" s="23"/>
+      <c r="E132" s="18"/>
       <c r="F132" s="1">
         <v>20</v>
       </c>
-      <c r="G132" s="24">
+      <c r="G132" s="19">
         <f t="shared" si="0"/>
         <v>4.0829400271229705E-6</v>
       </c>
-      <c r="H132" s="23"/>
+      <c r="H132" s="18"/>
       <c r="I132" s="7">
         <f t="shared" si="1"/>
         <v>17071.98406584574</v>
       </c>
-      <c r="J132" s="26">
+      <c r="J132" s="21">
         <f t="shared" si="2"/>
         <v>17051.98406584574</v>
       </c>
-      <c r="M132" s="22">
+      <c r="M132" s="17">
         <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B133" s="23"/>
-      <c r="C133" s="22">
+      <c r="A133" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B133" s="18"/>
+      <c r="C133" s="17">
         <v>72426</v>
       </c>
-      <c r="D133" s="24">
+      <c r="D133" s="19">
         <f>C133/$C$134</f>
         <v>0.23285856669774621</v>
       </c>
-      <c r="E133" s="23"/>
+      <c r="E133" s="18"/>
       <c r="F133" s="7">
         <v>972781</v>
       </c>
-      <c r="G133" s="24">
+      <c r="G133" s="19">
         <f t="shared" si="0"/>
         <v>0.19859032412623553</v>
       </c>
-      <c r="H133" s="23"/>
+      <c r="H133" s="18"/>
       <c r="I133" s="7">
         <f t="shared" si="1"/>
         <v>1140641.6217278077</v>
       </c>
-      <c r="J133" s="26">
+      <c r="J133" s="21">
         <f t="shared" si="2"/>
         <v>167860.62172780768</v>
       </c>
-      <c r="M133" s="22">
+      <c r="M133" s="17">
         <v>79616</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="22">
+      <c r="B134" s="18"/>
+      <c r="C134" s="17">
         <f>SUM(C111:C133)</f>
         <v>311030</v>
       </c>
-      <c r="D134" s="25">
+      <c r="D134" s="20">
         <f>SUM(D111:D133)</f>
         <v>1</v>
       </c>
-      <c r="E134" s="23"/>
-      <c r="F134" s="26">
+      <c r="E134" s="18"/>
+      <c r="F134" s="21">
         <f>SUM(F111:F133)</f>
         <v>4898431</v>
       </c>
-      <c r="G134" s="25">
+      <c r="G134" s="20">
         <f>SUM(G111:G133)</f>
         <v>1</v>
       </c>
-      <c r="H134" s="23"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="23"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6414,7 +6501,7 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6476,97 +6563,97 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
         <f>SUM(C3:C6)</f>
         <v>101100</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <f>SUM(D3:D6)</f>
         <v>100</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <f>SUM(E3:E6)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
         <f>SUM(G3:G6)</f>
         <v>101202</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <f>C3/(C3+C4+C5)</f>
         <v>0.98911968348170132</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <f>D4/(D4+D3+D5)</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <f>E5/(E5+E4+E3)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16">
+      <c r="C13" s="8"/>
+      <c r="D13" s="11">
         <f>(C11+D11+E11)/3</f>
         <v>0.96303989449390048</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
